--- a/data/trans_media/Q17H_M-Habitat-trans_media.xlsx
+++ b/data/trans_media/Q17H_M-Habitat-trans_media.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,39; 3,93</t>
+          <t>2,37; 3,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,19; 3,32</t>
+          <t>2,15; 3,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,29; 3,51</t>
+          <t>2,27; 3,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,49; 4,02</t>
+          <t>2,59; 4,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,46; 3,84</t>
+          <t>2,55; 3,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,05; 3,2</t>
+          <t>2,0; 3,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,64; 3,74</t>
+          <t>2,61; 3,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,45; 3,35</t>
+          <t>2,51; 3,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,32; 3,21</t>
+          <t>2,3; 3,17</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,3; 4,0</t>
+          <t>3,31; 3,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,5; 3,07</t>
+          <t>2,51; 3,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,58; 3,15</t>
+          <t>2,59; 3,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,89; 3,5</t>
+          <t>2,87; 3,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,55; 3,11</t>
+          <t>2,55; 3,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,32; 2,82</t>
+          <t>2,36; 2,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,22; 3,68</t>
+          <t>3,19; 3,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,61; 2,98</t>
+          <t>2,6; 2,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,54; 2,93</t>
+          <t>2,53; 2,93</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,86; 3,39</t>
+          <t>2,87; 3,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,73; 3,17</t>
+          <t>2,72; 3,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,61; 3,07</t>
+          <t>2,62; 3,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,69; 3,14</t>
+          <t>2,7; 3,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,65; 3,09</t>
+          <t>2,66; 3,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,64; 3,03</t>
+          <t>2,63; 3,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,83; 3,2</t>
+          <t>2,84; 3,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,76; 3,06</t>
+          <t>2,75; 3,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,69; 2,98</t>
+          <t>2,7; 3,0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1015,32 +1015,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,59; 3,13</t>
+          <t>2,57; 3,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,92; 3,44</t>
+          <t>2,9; 3,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,74; 3,27</t>
+          <t>2,75; 3,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,78; 3,27</t>
+          <t>2,78; 3,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,57; 3,06</t>
+          <t>2,57; 3,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,7; 3,16</t>
+          <t>2,71; 3,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,82; 3,18</t>
+          <t>2,81; 3,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,73; 3,24</t>
+          <t>2,75; 3,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,64; 3,07</t>
+          <t>2,65; 3,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,73; 3,15</t>
+          <t>2,67; 3,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,68; 3,12</t>
+          <t>2,68; 3,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,55; 2,94</t>
+          <t>2,58; 2,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,77; 3,17</t>
+          <t>2,77; 3,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,76; 3,11</t>
+          <t>2,79; 3,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,65; 2,96</t>
+          <t>2,67; 2,94</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,8; 3,1</t>
+          <t>2,79; 3,08</t>
         </is>
       </c>
     </row>
@@ -1235,37 +1235,37 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,97; 3,24</t>
+          <t>2,96; 3,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,82; 3,05</t>
+          <t>2,82; 3,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,8; 3,02</t>
+          <t>2,77; 3,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,86; 3,12</t>
+          <t>2,87; 3,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,7; 2,93</t>
+          <t>2,7; 2,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,73; 2,95</t>
+          <t>2,74; 2,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,96; 3,15</t>
+          <t>2,96; 3,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
